--- a/PCB_desing/Bill_of_Materials.xlsx
+++ b/PCB_desing/Bill_of_Materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
   <si>
     <t>/export</t>
   </si>
@@ -381,6 +381,24 @@
   </si>
   <si>
     <t xml:space="preserve">$0.19000 </t>
+  </si>
+  <si>
+    <t>Heatsink_Stone</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>HSE-B20250-040H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/CUI-Devices/HSE-B20250-040H?qs=5aG0NVq1C4x8typQNOePvQ%3D%3D</t>
+  </si>
+  <si>
+    <t>$0.87</t>
   </si>
 </sst>
 </file>
@@ -735,7 +753,7 @@
   <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,6 +1420,30 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2000,7 +2042,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3"/>
+    <hyperlink ref="J3" display="https://www.digikey.com/product-detail/en/infineon-technologies/IRF540NPBF/IRF540NPBF-ND/811869?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_EN_Product&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gcl"/>
     <hyperlink ref="J4" r:id="rId1"/>
     <hyperlink ref="J5" r:id="rId2"/>
     <hyperlink ref="J6" r:id="rId3"/>
@@ -2016,9 +2058,10 @@
     <hyperlink ref="J16" r:id="rId13"/>
     <hyperlink ref="J20" r:id="rId14"/>
     <hyperlink ref="J21" r:id="rId15"/>
-    <hyperlink ref="J22"/>
+    <hyperlink ref="J22" display="https://www.digikey.com/product-detail/en/diodes-incorporated/1N4007-T/1N4007DICT-ND/76454?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_EN_Product&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj"/>
+    <hyperlink ref="J23" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
--- a/PCB_desing/Bill_of_Materials.xlsx
+++ b/PCB_desing/Bill_of_Materials.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2058,7 +2058,7 @@
     <hyperlink ref="J16" r:id="rId13"/>
     <hyperlink ref="J20" r:id="rId14"/>
     <hyperlink ref="J21" r:id="rId15"/>
-    <hyperlink ref="J22" display="https://www.digikey.com/product-detail/en/diodes-incorporated/1N4007-T/1N4007DICT-ND/76454?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_EN_Product&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj"/>
+    <hyperlink ref="J22"/>
     <hyperlink ref="J23" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
